--- a/data/trans_orig/P62A$invalidez-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2874</v>
+        <v>2464</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13205</v>
+        <v>12727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.120471324827114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05444819312816997</v>
+        <v>0.04667181161079969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2501729991523867</v>
+        <v>0.241114866463409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>6359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2476</v>
+        <v>2519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12647</v>
+        <v>12507</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07201460740747462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02804150018527508</v>
+        <v>0.02853100880806093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1432249958435169</v>
+        <v>0.1416377822689063</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>45499</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38716</v>
+        <v>39240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49353</v>
+        <v>49737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8619589928658213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7334721226792209</v>
+        <v>0.74340029755105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9349830729071099</v>
+        <v>0.9422580375146934</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -828,19 +828,19 @@
         <v>15464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9996</v>
+        <v>9505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21481</v>
+        <v>21565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4353839274461122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2814292850258196</v>
+        <v>0.2676108361765293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6047865990671802</v>
+        <v>0.6071665120976446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -849,19 +849,19 @@
         <v>60963</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51520</v>
+        <v>51147</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68597</v>
+        <v>68865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6903793457342675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5834506518381529</v>
+        <v>0.5792208517598493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7768330151900302</v>
+        <v>0.7798724104152471</v>
       </c>
     </row>
     <row r="6">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4934</v>
+        <v>4783</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01756968230706476</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09347341459984224</v>
+        <v>0.09062169371606223</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5638</v>
+        <v>5605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05020399574369601</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1587413198418371</v>
+        <v>0.157805090413888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -920,19 +920,19 @@
         <v>2711</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7505</v>
+        <v>6808</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03069605662603358</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008896731228250783</v>
+        <v>0.008933879839443557</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08498606524518661</v>
+        <v>0.07709518900097824</v>
       </c>
     </row>
     <row r="7">
@@ -962,19 +962,19 @@
         <v>19499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13174</v>
+        <v>13680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25161</v>
+        <v>25452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5489768854750177</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.370906536779379</v>
+        <v>0.3851477957213553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7083983712299385</v>
+        <v>0.7165882133441126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -983,19 +983,19 @@
         <v>19498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12520</v>
+        <v>12364</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27106</v>
+        <v>28832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2208128602184138</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.141782447432996</v>
+        <v>0.1400154247738587</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3069674247171129</v>
+        <v>0.3265079966494404</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>18296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11455</v>
+        <v>11273</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27096</v>
+        <v>27356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.151300118862826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09472824201036964</v>
+        <v>0.09322620305694643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2240678761992099</v>
+        <v>0.2262234993090448</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1037,19 +1037,19 @@
         <v>7610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3695</v>
+        <v>3689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14517</v>
+        <v>14098</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09607872994598771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04665632162318779</v>
+        <v>0.04656927683379235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1832787202364946</v>
+        <v>0.1779918244350108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1058,19 +1058,19 @@
         <v>25906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17755</v>
+        <v>17398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36018</v>
+        <v>35947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.129445212261784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08871866421481499</v>
+        <v>0.08693444700950223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1799692248500074</v>
+        <v>0.1796173603361038</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>100889</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>91592</v>
+        <v>91562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>107970</v>
+        <v>107734</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8343037351197335</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7574187666839489</v>
+        <v>0.7571748003683431</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8928633063173047</v>
+        <v>0.8909104041601441</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1108,19 +1108,19 @@
         <v>20057</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13484</v>
+        <v>12829</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29821</v>
+        <v>28520</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2532276179605318</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1702356376376581</v>
+        <v>0.1619643807268793</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3765022270153322</v>
+        <v>0.3600744598318918</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>117</v>
@@ -1129,19 +1129,19 @@
         <v>120946</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>106214</v>
+        <v>105837</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134297</v>
+        <v>134442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6043318977989561</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5307210339650481</v>
+        <v>0.5288376225758963</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6710428231411339</v>
+        <v>0.6717663470028311</v>
       </c>
     </row>
     <row r="10">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5950</v>
+        <v>6263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01439614601744044</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04920191068778449</v>
+        <v>0.05179436136168232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1179,19 +1179,19 @@
         <v>5994</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2133</v>
+        <v>2768</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12042</v>
+        <v>12698</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0756699413106766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02692615313426925</v>
+        <v>0.03494087509384391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1520378268322601</v>
+        <v>0.1603216467597808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1200,19 +1200,19 @@
         <v>7734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3696</v>
+        <v>3660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14751</v>
+        <v>14721</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03864640664094158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01846716537738494</v>
+        <v>0.01828765538564253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07370443672057948</v>
+        <v>0.0735542735012492</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>45545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36660</v>
+        <v>36507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54003</v>
+        <v>54060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5750237107828039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4628422153281276</v>
+        <v>0.4609063394047007</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.681804477742143</v>
+        <v>0.6825253209241633</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>44</v>
@@ -1263,19 +1263,19 @@
         <v>45545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>34492</v>
+        <v>34105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58392</v>
+        <v>57518</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2275764832983183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1723459662868937</v>
+        <v>0.1704145702765276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2917697841493146</v>
+        <v>0.2874006143220605</v>
       </c>
     </row>
     <row r="12">
@@ -1296,19 +1296,19 @@
         <v>6158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2711</v>
+        <v>2125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12412</v>
+        <v>12398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08240447284537106</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03628413971873976</v>
+        <v>0.02843501419203517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1660935818844432</v>
+        <v>0.1659149411889156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1317,19 +1317,19 @@
         <v>2986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9252</v>
+        <v>8095</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04492554242768224</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01472722000462414</v>
+        <v>0.01455986513118336</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1392015826636057</v>
+        <v>0.1217954599355267</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1338,19 +1338,19 @@
         <v>9144</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4145</v>
+        <v>4091</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16407</v>
+        <v>15559</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06476173689988879</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02935932666553832</v>
+        <v>0.0289748722053444</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1162012256044178</v>
+        <v>0.1101968793172915</v>
       </c>
     </row>
     <row r="13">
@@ -1367,19 +1367,19 @@
         <v>68570</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62316</v>
+        <v>62330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72017</v>
+        <v>72603</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9175955271546289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8339064181155569</v>
+        <v>0.8340850588110844</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9637158602812708</v>
+        <v>0.9715649858079649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1388,19 +1388,19 @@
         <v>24501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17300</v>
+        <v>17185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32933</v>
+        <v>32382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3686282505357054</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2602946164030115</v>
+        <v>0.2585581106007283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4955050516871842</v>
+        <v>0.4872071648276187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1409,19 +1409,19 @@
         <v>93070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81730</v>
+        <v>80882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103967</v>
+        <v>104419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6591760739802913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5788593991567531</v>
+        <v>0.5728507614398284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7363535395580043</v>
+        <v>0.7395540945844148</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7627</v>
+        <v>6360</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02969794881885894</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1147502580647478</v>
+        <v>0.09568569847418686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7917</v>
+        <v>6720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01397993654819688</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05607578263648457</v>
+        <v>0.04759204962753708</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>37004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28945</v>
+        <v>29025</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>45245</v>
+        <v>45168</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5567482582177534</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4355044354396225</v>
+        <v>0.4367034948513729</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6807458779334474</v>
+        <v>0.6795838280415427</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>36</v>
@@ -1535,19 +1535,19 @@
         <v>37004</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27841</v>
+        <v>27036</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>48543</v>
+        <v>48449</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.262082252571623</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1971848891962413</v>
+        <v>0.1914873918357126</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3438102985955185</v>
+        <v>0.3431422038729423</v>
       </c>
     </row>
     <row r="16">
@@ -1568,19 +1568,19 @@
         <v>3851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8868</v>
+        <v>8811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0550205652186971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01416596927067473</v>
+        <v>0.01354770844198797</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1267161125342816</v>
+        <v>0.125889449257775</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1589,19 +1589,19 @@
         <v>4845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1889</v>
+        <v>1929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11489</v>
+        <v>10580</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07471551102495021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02913217936169185</v>
+        <v>0.02974190735738573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1771849102002459</v>
+        <v>0.1631667974826048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1610,19 +1610,19 @@
         <v>8696</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4014</v>
+        <v>4049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15658</v>
+        <v>16069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06449242477110421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02977396128667377</v>
+        <v>0.03002949669394663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1161283330952065</v>
+        <v>0.1191788963361733</v>
       </c>
     </row>
     <row r="17">
@@ -1639,19 +1639,19 @@
         <v>64297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58452</v>
+        <v>58570</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67370</v>
+        <v>67996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9186964571494716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8351880469612339</v>
+        <v>0.8368703327748485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9626133231768018</v>
+        <v>0.9715481763494161</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1660,19 +1660,19 @@
         <v>28795</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21463</v>
+        <v>21039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36438</v>
+        <v>36649</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4440723134239977</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3310008096097746</v>
+        <v>0.3244560190488973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5619261523669482</v>
+        <v>0.5651887511962232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>100</v>
@@ -1681,19 +1681,19 @@
         <v>93092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82007</v>
+        <v>80794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103434</v>
+        <v>102084</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6904362083641287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6082288132119975</v>
+        <v>0.5992308160747633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7671422620437529</v>
+        <v>0.7571320176403129</v>
       </c>
     </row>
     <row r="18">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5586</v>
+        <v>5757</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02628297763183137</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07981707335060306</v>
+        <v>0.0822598276134484</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1731,19 +1731,19 @@
         <v>4938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1871</v>
+        <v>1791</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10874</v>
+        <v>10480</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07614481501435633</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02885425458928809</v>
+        <v>0.02761964537648225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1676963579413627</v>
+        <v>0.1616196305324861</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1752,19 +1752,19 @@
         <v>6777</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2934</v>
+        <v>2859</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13429</v>
+        <v>12794</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05026295327422638</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02176405311968519</v>
+        <v>0.02120326857216475</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09960205292371931</v>
+        <v>0.09489351238393529</v>
       </c>
     </row>
     <row r="19">
@@ -1794,19 +1794,19 @@
         <v>28246</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20532</v>
+        <v>20913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36227</v>
+        <v>36461</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4356023469492421</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3166294082011362</v>
+        <v>0.3225054031355983</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5586845404507552</v>
+        <v>0.562289184657202</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1815,19 +1815,19 @@
         <v>28246</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20032</v>
+        <v>20056</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37372</v>
+        <v>38327</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2094935569557217</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1485691357397396</v>
+        <v>0.1487535273597211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2771761026885352</v>
+        <v>0.284259697466695</v>
       </c>
     </row>
     <row r="20">
@@ -1848,19 +1848,19 @@
         <v>4516</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1736</v>
+        <v>1690</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9430</v>
+        <v>9333</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09976268355689955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03835925354505935</v>
+        <v>0.03734524395423602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2083380258187043</v>
+        <v>0.2061851075465619</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1869,19 +1869,19 @@
         <v>7016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2923</v>
+        <v>2985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12406</v>
+        <v>13013</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.200764036218256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08365223532781539</v>
+        <v>0.08540577669267643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3550066708974839</v>
+        <v>0.3723642160146879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1890,19 +1890,19 @@
         <v>11532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5867</v>
+        <v>6321</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18689</v>
+        <v>18318</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1437663280173267</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0731429421019206</v>
+        <v>0.07880962906165094</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2329919748470129</v>
+        <v>0.2283698001024758</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>39863</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35026</v>
+        <v>34682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43387</v>
+        <v>42980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8806627593101858</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7737916663487558</v>
+        <v>0.7662064483226904</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9585003017254543</v>
+        <v>0.9495287791350798</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1940,19 +1940,19 @@
         <v>12962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7336</v>
+        <v>7826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19245</v>
+        <v>19336</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3709126738160311</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2099155761924589</v>
+        <v>0.2239380922230302</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5507106385287829</v>
+        <v>0.5533212366266372</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -1961,19 +1961,19 @@
         <v>52825</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43064</v>
+        <v>43690</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60638</v>
+        <v>60865</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.658577995743061</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.536888173732826</v>
+        <v>0.5446875552920225</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7559869002675204</v>
+        <v>0.7588086804516975</v>
       </c>
     </row>
     <row r="22">
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5462</v>
+        <v>4526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01957455713291462</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.120656725541788</v>
+        <v>0.09998690380729619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5546</v>
+        <v>5500</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02858553334522831</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1587098483607482</v>
+        <v>0.1573758744316345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6793</v>
+        <v>6161</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02350040350071012</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08468743583442323</v>
+        <v>0.07681433375276876</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>13969</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8328</v>
+        <v>8331</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20123</v>
+        <v>20132</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3997377566204846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2383104490701852</v>
+        <v>0.2384003999031997</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5758424804113077</v>
+        <v>0.5760779477050735</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2095,19 +2095,19 @@
         <v>13969</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7869</v>
+        <v>7905</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21742</v>
+        <v>21709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1741552727389022</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09809856942005052</v>
+        <v>0.09855070372290978</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2710635443813803</v>
+        <v>0.2706501262371346</v>
       </c>
     </row>
     <row r="24">
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7069</v>
+        <v>6211</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04277801385710335</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1487455492635557</v>
+        <v>0.1306737053820327</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7117</v>
+        <v>7082</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01835900414876799</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06426899611727599</v>
+        <v>0.0639520785462092</v>
       </c>
     </row>
     <row r="25">
@@ -2191,7 +2191,7 @@
         <v>61089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56844</v>
+        <v>56798</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>63214</v>
@@ -2200,7 +2200,7 @@
         <v>0.9663833715992028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8992341547185027</v>
+        <v>0.8984981669415292</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -2212,19 +2212,19 @@
         <v>14869</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9195</v>
+        <v>8639</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21987</v>
+        <v>21676</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.312856030110195</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1934617468160491</v>
+        <v>0.181770851190765</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4626314659347761</v>
+        <v>0.4560723109453045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2233,19 +2233,19 @@
         <v>75958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66068</v>
+        <v>64204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86060</v>
+        <v>84330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6859095933212124</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5965950128728662</v>
+        <v>0.5797647896051972</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.77713246746077</v>
+        <v>0.761502106972932</v>
       </c>
     </row>
     <row r="26">
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5278</v>
+        <v>6268</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01683757929214158</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08349225483415539</v>
+        <v>0.09914912600290601</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8808</v>
+        <v>8876</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05680055559805573</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1853158821506236</v>
+        <v>0.1867491592743452</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2304,19 +2304,19 @@
         <v>3764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10433</v>
+        <v>9692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03398845614790673</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009201704001513397</v>
+        <v>0.009221926699317505</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09421073911501282</v>
+        <v>0.08752056382894531</v>
       </c>
     </row>
     <row r="27">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5309</v>
+        <v>6364</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01677904910865555</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08397958920142652</v>
+        <v>0.1006759450602265</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -2354,19 +2354,19 @@
         <v>27925</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20659</v>
+        <v>21131</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34626</v>
+        <v>35136</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5875654004346459</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4346793700954164</v>
+        <v>0.4446026045892296</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7285599531762001</v>
+        <v>0.739276767631837</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -2375,19 +2375,19 @@
         <v>28986</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20168</v>
+        <v>21125</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>39252</v>
+        <v>40084</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2617429463821129</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1821203490443005</v>
+        <v>0.1907632663644207</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3544448658903478</v>
+        <v>0.3619626006190867</v>
       </c>
     </row>
     <row r="28">
@@ -2408,19 +2408,19 @@
         <v>9369</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4621</v>
+        <v>4583</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16314</v>
+        <v>15850</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06559639183479768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0323519218753483</v>
+        <v>0.0320869164975815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1142239098052121</v>
+        <v>0.1109755159057419</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2429,19 +2429,19 @@
         <v>9861</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4837</v>
+        <v>4892</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18632</v>
+        <v>18728</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08291704939457782</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04067241228003159</v>
+        <v>0.0411370331680375</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1566659473653788</v>
+        <v>0.157473753468195</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2450,19 +2450,19 @@
         <v>19230</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12111</v>
+        <v>11761</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29964</v>
+        <v>29031</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07346596381764096</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04627023074988308</v>
+        <v>0.04493253101314566</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1144719075104405</v>
+        <v>0.1109091972198546</v>
       </c>
     </row>
     <row r="29">
@@ -2479,19 +2479,19 @@
         <v>133458</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>126513</v>
+        <v>126977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138206</v>
+        <v>138244</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9344036081652023</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8857760901947888</v>
+        <v>0.8890244840942579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9676480781246518</v>
+        <v>0.9679130835024184</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>49</v>
@@ -2500,19 +2500,19 @@
         <v>48583</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38064</v>
+        <v>38719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58974</v>
+        <v>60289</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4085144825465087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3200631314045959</v>
+        <v>0.3255704643918516</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4958870512543435</v>
+        <v>0.5069373824477866</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>185</v>
@@ -2521,19 +2521,19 @@
         <v>182042</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>165840</v>
+        <v>166073</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>198118</v>
+        <v>195738</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6954679722190947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6335695992541077</v>
+        <v>0.6344602268964323</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7568842598848969</v>
+        <v>0.7477920649976293</v>
       </c>
     </row>
     <row r="30">
@@ -2563,19 +2563,19 @@
         <v>4235</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9751</v>
+        <v>10744</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03560796810949358</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.009455010133036578</v>
+        <v>0.009485297194577977</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08199291080751231</v>
+        <v>0.09033842563101815</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2584,19 +2584,19 @@
         <v>4235</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1187</v>
+        <v>1113</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9925</v>
+        <v>10191</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01617833891313332</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00453601562989997</v>
+        <v>0.004252058962200983</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03791826679277858</v>
+        <v>0.03893168233296875</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>59038</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48503</v>
+        <v>47347</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>69253</v>
+        <v>69627</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.496422152452981</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4078343842630832</v>
+        <v>0.3981185327029867</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5823173275905049</v>
+        <v>0.5854567815796105</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -2647,19 +2647,19 @@
         <v>59038</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>45921</v>
+        <v>46793</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>74634</v>
+        <v>75120</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2255474337001052</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1754333785649599</v>
+        <v>0.1787668611965234</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2851305667008702</v>
+        <v>0.286987444190458</v>
       </c>
     </row>
     <row r="32">
@@ -2680,19 +2680,19 @@
         <v>23544</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14819</v>
+        <v>15588</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33414</v>
+        <v>35600</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1400233218974226</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.088130757104848</v>
+        <v>0.09270572227428067</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.198724438416232</v>
+        <v>0.2117224502515289</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2701,19 +2701,19 @@
         <v>13060</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7368</v>
+        <v>6650</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22326</v>
+        <v>20540</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1015111537212159</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05726935708291131</v>
+        <v>0.05168846343755316</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1735324635164857</v>
+        <v>0.1596540831788678</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -2722,19 +2722,19 @@
         <v>36604</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26796</v>
+        <v>26090</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48879</v>
+        <v>49274</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1233292380348868</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09028480717323083</v>
+        <v>0.08790666829846475</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1646886641127366</v>
+        <v>0.1660208068469135</v>
       </c>
     </row>
     <row r="33">
@@ -2751,19 +2751,19 @@
         <v>143634</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>133519</v>
+        <v>131619</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>152032</v>
+        <v>151932</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8542389632941031</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7940778396399035</v>
+        <v>0.7827826032905251</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.904180277124466</v>
+        <v>0.9035886800413445</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>56</v>
@@ -2772,19 +2772,19 @@
         <v>59901</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>47738</v>
+        <v>47591</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>71818</v>
+        <v>70647</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4655954946435114</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3710548927068558</v>
+        <v>0.369912185896495</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5582268176712856</v>
+        <v>0.5491255159929181</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>204</v>
@@ -2793,19 +2793,19 @@
         <v>203535</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>187991</v>
+        <v>186344</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>219947</v>
+        <v>218318</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6857715161071599</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6333995492712471</v>
+        <v>0.6278500572177784</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7410682085995546</v>
+        <v>0.735580970229509</v>
       </c>
     </row>
     <row r="34">
@@ -2835,19 +2835,19 @@
         <v>4581</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1063</v>
+        <v>1225</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11483</v>
+        <v>10636</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0356062209655046</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008260447705245555</v>
+        <v>0.009523670253052615</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08925361101468134</v>
+        <v>0.08267380327552795</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2856,19 +2856,19 @@
         <v>4581</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1232</v>
+        <v>1031</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10733</v>
+        <v>10304</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0154344267532917</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004150048588913503</v>
+        <v>0.003473722010701877</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03616307781627695</v>
+        <v>0.03471869420659272</v>
       </c>
     </row>
     <row r="35">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5381</v>
+        <v>5779</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.005737714808474288</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03200468071329913</v>
+        <v>0.03437165213876723</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>48</v>
@@ -2906,19 +2906,19 @@
         <v>52280</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41509</v>
+        <v>42008</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64641</v>
+        <v>65154</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4063593220988107</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3226402930608532</v>
+        <v>0.3265217471134917</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5024390615591232</v>
+        <v>0.5064284445857334</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -2927,19 +2927,19 @@
         <v>53245</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>40131</v>
+        <v>40893</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>67423</v>
+        <v>67609</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1793973924108559</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1352143302615308</v>
+        <v>0.1377803515384207</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.227169198598407</v>
+        <v>0.2277945468884259</v>
       </c>
     </row>
     <row r="36">
@@ -2960,19 +2960,19 @@
         <v>72092</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09770280915819703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>46</v>
@@ -2981,19 +2981,19 @@
         <v>47411</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08229793987075504</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>116</v>
@@ -3002,19 +3002,19 @@
         <v>119503</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0909487838000031</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
     </row>
     <row r="37">
@@ -3031,19 +3031,19 @@
         <v>657299</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8907998537697298</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>221</v>
@@ -3052,19 +3052,19 @@
         <v>225132</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.390796189483865</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>899</v>
@@ -3073,19 +3073,19 @@
         <v>882431</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6715810233620241</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
     </row>
     <row r="38">
@@ -3102,19 +3102,19 @@
         <v>6458</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008752382786893224</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>26</v>
@@ -3123,19 +3123,19 @@
         <v>27202</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04721893638108128</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>33</v>
@@ -3144,19 +3144,19 @@
         <v>33660</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02561744496754178</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
     </row>
     <row r="39">
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.002744954285179886</v>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>270</v>
@@ -3194,19 +3194,19 @@
         <v>283506</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.4921244463497008</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>272</v>
@@ -3215,19 +3215,19 @@
         <v>285531</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2173057816125692</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
     </row>
     <row r="40">
@@ -3492,19 +3492,19 @@
         <v>11499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6486</v>
+        <v>6402</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19133</v>
+        <v>18275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1511321322690489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08525434407521019</v>
+        <v>0.08415090558830265</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2514746693970704</v>
+        <v>0.2401999014216759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3513,19 +3513,19 @@
         <v>5995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2151</v>
+        <v>2067</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12966</v>
+        <v>12760</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08711841511325291</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03125697889134002</v>
+        <v>0.03003264816619621</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1884230813253928</v>
+        <v>0.1854249487775732</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -3534,19 +3534,19 @@
         <v>17493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10200</v>
+        <v>10662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27333</v>
+        <v>25879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1207311098617188</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07039538992574693</v>
+        <v>0.07358545934122522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1886408304039776</v>
+        <v>0.1786057531374843</v>
       </c>
     </row>
     <row r="5">
@@ -3563,19 +3563,19 @@
         <v>52107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42053</v>
+        <v>42500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60447</v>
+        <v>59358</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6848677032056265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5527304761338742</v>
+        <v>0.5586036128162806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7944878690908941</v>
+        <v>0.7801793639040875</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -3584,19 +3584,19 @@
         <v>26091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17866</v>
+        <v>19445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34209</v>
+        <v>35995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3791553753242962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2596377013084029</v>
+        <v>0.2825825895245378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4971252715634069</v>
+        <v>0.5230817254840233</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -3605,19 +3605,19 @@
         <v>78198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65239</v>
+        <v>66849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91597</v>
+        <v>90537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5396805817094981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4502492950855919</v>
+        <v>0.461361614762716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6321534484892241</v>
+        <v>0.624843729898901</v>
       </c>
     </row>
     <row r="6">
@@ -3634,19 +3634,19 @@
         <v>12478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6124</v>
+        <v>6402</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21278</v>
+        <v>22571</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1640001645253246</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08049036173976605</v>
+        <v>0.08414681341116099</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2796747630524109</v>
+        <v>0.2966609306817878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3655,19 +3655,19 @@
         <v>18888</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11690</v>
+        <v>11741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27305</v>
+        <v>26688</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2744817691957305</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1698864815638018</v>
+        <v>0.1706252513142808</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3967975971551493</v>
+        <v>0.3878373609225019</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -3676,19 +3676,19 @@
         <v>31366</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22152</v>
+        <v>21950</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43144</v>
+        <v>42453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2164694459296256</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1528812194283273</v>
+        <v>0.1514874866705777</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2977554375146697</v>
+        <v>0.2929878907889438</v>
       </c>
     </row>
     <row r="7">
@@ -3718,19 +3718,19 @@
         <v>18883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12328</v>
+        <v>11533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27595</v>
+        <v>26813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2744056611856787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1791505459095955</v>
+        <v>0.1675938205598933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4010213440707239</v>
+        <v>0.3896465830837874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -3739,19 +3739,19 @@
         <v>18883</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11228</v>
+        <v>11888</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28721</v>
+        <v>28872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1303191413506082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07749324898851348</v>
+        <v>0.0820479866011409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1982187004640743</v>
+        <v>0.1992587695670801</v>
       </c>
     </row>
     <row r="8">
@@ -3772,19 +3772,19 @@
         <v>27578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19237</v>
+        <v>19363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39334</v>
+        <v>38739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2083801014035588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1453574973471492</v>
+        <v>0.1463072826175519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2972020653700083</v>
+        <v>0.2927094093574868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3793,19 +3793,19 @@
         <v>12068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6646</v>
+        <v>7012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21020</v>
+        <v>20899</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1357733400881522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0747700305933577</v>
+        <v>0.0788840508030766</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2364857144265437</v>
+        <v>0.2351252328658829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -3814,19 +3814,19 @@
         <v>39646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28695</v>
+        <v>28517</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52818</v>
+        <v>52808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1792086025188013</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1297074784756511</v>
+        <v>0.1289032110276533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2387489817504659</v>
+        <v>0.2387008284925421</v>
       </c>
     </row>
     <row r="9">
@@ -3843,19 +3843,19 @@
         <v>95744</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83575</v>
+        <v>83132</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105349</v>
+        <v>105614</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.723437528833105</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6314879449353386</v>
+        <v>0.6281377817301814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7960141917004571</v>
+        <v>0.7980170791728781</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -3864,19 +3864,19 @@
         <v>13858</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8359</v>
+        <v>8013</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21680</v>
+        <v>21803</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1559119056607517</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0940382456881145</v>
+        <v>0.09014841282500234</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2439119823884263</v>
+        <v>0.2452909948159389</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -3885,19 +3885,19 @@
         <v>109602</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>94261</v>
+        <v>94003</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>126245</v>
+        <v>125517</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4954205675541745</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4260779796606988</v>
+        <v>0.4249093368654247</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5706501018545156</v>
+        <v>0.5673614776369394</v>
       </c>
     </row>
     <row r="10">
@@ -3914,19 +3914,19 @@
         <v>8060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3208</v>
+        <v>3040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15983</v>
+        <v>15531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0609021052497531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02424200632261348</v>
+        <v>0.0229694764572322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1207667999646772</v>
+        <v>0.117355104348888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3935,19 +3935,19 @@
         <v>16397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8951</v>
+        <v>9688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25594</v>
+        <v>25814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1844688440229243</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1006976485702911</v>
+        <v>0.1089988369462138</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2879450076951136</v>
+        <v>0.2904184136470616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3956,19 +3956,19 @@
         <v>24457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15206</v>
+        <v>14999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35387</v>
+        <v>36057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1105479910737475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06873585220634634</v>
+        <v>0.06779943638396334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1599553894692995</v>
+        <v>0.1629830311944405</v>
       </c>
     </row>
     <row r="11">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4968</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007280264513583115</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03754074143684712</v>
+        <v>0.03022333057722651</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -4006,19 +4006,19 @@
         <v>46562</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37207</v>
+        <v>36983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56578</v>
+        <v>56003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5238459102281718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4185976302597766</v>
+        <v>0.4160762672572566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6365340227498355</v>
+        <v>0.6300596063603563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -4027,19 +4027,19 @@
         <v>47525</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35536</v>
+        <v>35553</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62122</v>
+        <v>61719</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2148228388532767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1606287488250919</v>
+        <v>0.1607055943278757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2808032996494277</v>
+        <v>0.2789812781045506</v>
       </c>
     </row>
     <row r="12">
@@ -4060,19 +4060,19 @@
         <v>13053</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7458</v>
+        <v>7108</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23782</v>
+        <v>21594</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.158704920309019</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09067593422541348</v>
+        <v>0.08643070461493503</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2891649369809862</v>
+        <v>0.2625626814875725</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -4081,19 +4081,19 @@
         <v>4193</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10581</v>
+        <v>9493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05548953782882516</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01398739825779785</v>
+        <v>0.01372110882516654</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1400263090242153</v>
+        <v>0.1256319183561587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -4102,19 +4102,19 @@
         <v>17245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10194</v>
+        <v>10584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26965</v>
+        <v>27238</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1092826099077819</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06459913189162197</v>
+        <v>0.06707081416093888</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1708743221961912</v>
+        <v>0.1726022764444215</v>
       </c>
     </row>
     <row r="13">
@@ -4131,19 +4131,19 @@
         <v>63187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52772</v>
+        <v>53147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70422</v>
+        <v>70602</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7682866699018086</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6416522390740642</v>
+        <v>0.6462070983082306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8562568555553387</v>
+        <v>0.8584409728967112</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4152,19 +4152,19 @@
         <v>27377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19238</v>
+        <v>18827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36731</v>
+        <v>35973</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3623146699799337</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2546014090544828</v>
+        <v>0.2491655942954849</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.486115064840717</v>
+        <v>0.476077607841286</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -4173,19 +4173,19 @@
         <v>90564</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74805</v>
+        <v>77696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102969</v>
+        <v>103358</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.573896321174476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.474031489773345</v>
+        <v>0.4923558360911488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6525101732650872</v>
+        <v>0.654971938024275</v>
       </c>
     </row>
     <row r="14">
@@ -4202,19 +4202,19 @@
         <v>3929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11531</v>
+        <v>10658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04777623555399107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01215175196386375</v>
+        <v>0.01202710605998204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.140209775529787</v>
+        <v>0.1295940850232556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4223,19 +4223,19 @@
         <v>5598</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11941</v>
+        <v>11679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07408694489847212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02617845923393993</v>
+        <v>0.02636714893922288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1580281891194925</v>
+        <v>0.1545580690898802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -4244,19 +4244,19 @@
         <v>9527</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4200</v>
+        <v>4385</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19211</v>
+        <v>18128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06037451318328915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02661471463249916</v>
+        <v>0.02778724913836014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1217387738369661</v>
+        <v>0.1148784591068114</v>
       </c>
     </row>
     <row r="15">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9945</v>
+        <v>9871</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02523217423518136</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1209241533534361</v>
+        <v>0.120025264266296</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>38</v>
@@ -4294,19 +4294,19 @@
         <v>40418</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32409</v>
+        <v>31496</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49377</v>
+        <v>49185</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5348998365395369</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4289151130037868</v>
+        <v>0.4168306291277504</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6534724589403882</v>
+        <v>0.6509262164791935</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -4315,19 +4315,19 @@
         <v>42493</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30477</v>
+        <v>31666</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>55236</v>
+        <v>54464</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2692748043413313</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1931293621877571</v>
+        <v>0.2006649729913207</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.350027405268153</v>
+        <v>0.345134983903859</v>
       </c>
     </row>
     <row r="16">
@@ -4348,19 +4348,19 @@
         <v>16180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9482</v>
+        <v>9650</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25541</v>
+        <v>25777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1580418358835261</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0926134913838829</v>
+        <v>0.09425404719052423</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2494688888060892</v>
+        <v>0.2517709070458803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4369,19 +4369,19 @@
         <v>11837</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6847</v>
+        <v>6150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19335</v>
+        <v>19313</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1175445963877395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06799111101872403</v>
+        <v>0.06107110286312582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1919934380371889</v>
+        <v>0.1917777022586607</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -4390,19 +4390,19 @@
         <v>28018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18394</v>
+        <v>18965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39295</v>
+        <v>40296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1379604126608829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09057108294016181</v>
+        <v>0.09338471001848185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1934918554229885</v>
+        <v>0.198416990329894</v>
       </c>
     </row>
     <row r="17">
@@ -4419,19 +4419,19 @@
         <v>78886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68880</v>
+        <v>68907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86953</v>
+        <v>86681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7705179948738138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6727853794908636</v>
+        <v>0.6730462262381681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8493059166339844</v>
+        <v>0.8466512951327766</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -4440,19 +4440,19 @@
         <v>43189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32711</v>
+        <v>33748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52528</v>
+        <v>52903</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4288704045836648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3248253493578698</v>
+        <v>0.3351160852483478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.521607683913943</v>
+        <v>0.5253360284594673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -4461,19 +4461,19 @@
         <v>122076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106143</v>
+        <v>107452</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>135627</v>
+        <v>136151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6011047227833424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5226496259979487</v>
+        <v>0.5290964619555446</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6678310343275329</v>
+        <v>0.6704123914157586</v>
       </c>
     </row>
     <row r="18">
@@ -4490,19 +4490,19 @@
         <v>7314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3038</v>
+        <v>3030</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14277</v>
+        <v>13597</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07144016924266007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0296717265233494</v>
+        <v>0.02959522048256516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1394521091594485</v>
+        <v>0.1328062391742316</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4511,19 +4511,19 @@
         <v>9342</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3870</v>
+        <v>3915</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17034</v>
+        <v>17166</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09276875309553445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03842500885258902</v>
+        <v>0.0388794917035459</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1691449557423684</v>
+        <v>0.1704630171686613</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -4532,19 +4532,19 @@
         <v>16656</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9732</v>
+        <v>9354</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27383</v>
+        <v>26312</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08201640417674159</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04791941789707625</v>
+        <v>0.04606122236350816</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1348326640024024</v>
+        <v>0.12956017917191</v>
       </c>
     </row>
     <row r="19">
@@ -4574,19 +4574,19 @@
         <v>40196</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30446</v>
+        <v>31057</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50251</v>
+        <v>50658</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3991519677473899</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3023337894422166</v>
+        <v>0.3083955319910008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4990018759574238</v>
+        <v>0.5030380967492203</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -4595,19 +4595,19 @@
         <v>40196</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30022</v>
+        <v>29982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52925</v>
+        <v>53651</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1979280487826858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1478297019984881</v>
+        <v>0.1476337028070276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.260605385315887</v>
+        <v>0.26418041175962</v>
       </c>
     </row>
     <row r="20">
@@ -4628,19 +4628,19 @@
         <v>5388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2052</v>
+        <v>2071</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11301</v>
+        <v>11370</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.107859066705531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0410858984972953</v>
+        <v>0.04145861911722892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2262193199156164</v>
+        <v>0.2276144579980198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4649,19 +4649,19 @@
         <v>4985</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1897</v>
+        <v>1807</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10978</v>
+        <v>9834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1060207098595626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04035470580094638</v>
+        <v>0.03842170929000241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2334713077086307</v>
+        <v>0.2091504774089206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -4670,19 +4670,19 @@
         <v>10373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5233</v>
+        <v>5497</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18432</v>
+        <v>18661</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1069677003557407</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05396598688088846</v>
+        <v>0.05668423394623152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1900779571218011</v>
+        <v>0.1924359899204379</v>
       </c>
     </row>
     <row r="21">
@@ -4699,19 +4699,19 @@
         <v>40606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33963</v>
+        <v>34074</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45644</v>
+        <v>45693</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8128722350885585</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6798829114674118</v>
+        <v>0.682117013418108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9137112106539733</v>
+        <v>0.9146991226384735</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -4720,19 +4720,19 @@
         <v>18622</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11818</v>
+        <v>11733</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25285</v>
+        <v>25772</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3960519694457012</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2513420140108154</v>
+        <v>0.2495413251127177</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5377566290058717</v>
+        <v>0.5481284879035403</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -4741,19 +4741,19 @@
         <v>59228</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>49149</v>
+        <v>49681</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69096</v>
+        <v>68526</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6107680791302175</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5068279865706744</v>
+        <v>0.5123201673609734</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7125238844040825</v>
+        <v>0.7066540581718783</v>
       </c>
     </row>
     <row r="22">
@@ -4770,19 +4770,19 @@
         <v>3960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1033</v>
+        <v>971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9035</v>
+        <v>8271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0792686982059105</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02068032188458104</v>
+        <v>0.0194312750194864</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1808670113879889</v>
+        <v>0.1655794680230623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4791,19 +4791,19 @@
         <v>6886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2922</v>
+        <v>2950</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12530</v>
+        <v>12803</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1464470321825944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06214342020114858</v>
+        <v>0.06274691223138812</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2664970129027953</v>
+        <v>0.2722854244878153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -4812,19 +4812,19 @@
         <v>10846</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5861</v>
+        <v>5781</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18239</v>
+        <v>17321</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.111841539802529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06044174787189399</v>
+        <v>0.05961036524091845</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1880798131138055</v>
+        <v>0.178615223561805</v>
       </c>
     </row>
     <row r="23">
@@ -4854,19 +4854,19 @@
         <v>16526</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9969</v>
+        <v>10739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23230</v>
+        <v>23631</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3514802885121419</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2120181462648602</v>
+        <v>0.2284012835156645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4940649512265821</v>
+        <v>0.5025875232699768</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -4875,19 +4875,19 @@
         <v>16526</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9660</v>
+        <v>10060</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24272</v>
+        <v>24665</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1704226807115128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09961747399105722</v>
+        <v>0.1037432128693324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2502989786095559</v>
+        <v>0.2543469828323959</v>
       </c>
     </row>
     <row r="24">
@@ -4911,16 +4911,16 @@
         <v>6059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20191</v>
+        <v>19476</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1509975307888675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08151788232969158</v>
+        <v>0.08152808176547682</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2716742395320567</v>
+        <v>0.262047196895896</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7026</v>
+        <v>6336</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03497965666914099</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.116888564152123</v>
+        <v>0.1054082533343862</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -4950,19 +4950,19 @@
         <v>13325</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7163</v>
+        <v>7134</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22314</v>
+        <v>21483</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09912220170101095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0532826291161322</v>
+        <v>0.05306708446926829</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1659898039497459</v>
+        <v>0.1598088386825882</v>
       </c>
     </row>
     <row r="25">
@@ -4979,19 +4979,19 @@
         <v>62064</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53193</v>
+        <v>53217</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68109</v>
+        <v>67268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8350644101553316</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7157071033527392</v>
+        <v>0.7160335811744947</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9163999845853886</v>
+        <v>0.905091319637476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -5000,19 +5000,19 @@
         <v>19330</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12285</v>
+        <v>12981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27561</v>
+        <v>26855</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3215961102854326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2043881521424971</v>
+        <v>0.215962315262712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4585260513616626</v>
+        <v>0.4467737248489218</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -5021,19 +5021,19 @@
         <v>81394</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69390</v>
+        <v>69921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91324</v>
+        <v>92534</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6054761916671578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5161817467684116</v>
+        <v>0.5201359114287125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6793502857648747</v>
+        <v>0.6883495788149068</v>
       </c>
     </row>
     <row r="26">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5215</v>
+        <v>5276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01393805905580088</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07016550683544898</v>
+        <v>0.07098177891638105</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -5071,19 +5071,19 @@
         <v>4965</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10435</v>
+        <v>10299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08260650689797711</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03240331429283774</v>
+        <v>0.03228230607353597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1736017364846997</v>
+        <v>0.1713370165144905</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -5092,19 +5092,19 @@
         <v>6001</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2041</v>
+        <v>2018</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12083</v>
+        <v>12131</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04464193427152096</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01517967276455355</v>
+        <v>0.01500981093687494</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08988047756486749</v>
+        <v>0.09023825082183329</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>34766</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26604</v>
+        <v>27221</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>41792</v>
+        <v>41843</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.578391088802221</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.442597461179144</v>
+        <v>0.4528644463470625</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6952811386015151</v>
+        <v>0.6961291568240819</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>34</v>
@@ -5155,19 +5155,19 @@
         <v>34766</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>25783</v>
+        <v>25882</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46856</v>
+        <v>46242</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2586172889371815</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1917944148876797</v>
+        <v>0.1925334908641113</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3485559355031421</v>
+        <v>0.3439881742773732</v>
       </c>
     </row>
     <row r="28">
@@ -5188,19 +5188,19 @@
         <v>23392</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15490</v>
+        <v>14857</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34415</v>
+        <v>33667</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1470254047511548</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09735570311343499</v>
+        <v>0.09338048902314849</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2163056834934583</v>
+        <v>0.2116016633768708</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -5209,19 +5209,19 @@
         <v>16497</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8694</v>
+        <v>9108</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27396</v>
+        <v>28274</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1098732855765608</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05790258356179384</v>
+        <v>0.06066574203719547</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1824649070526417</v>
+        <v>0.18831602363131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -5230,19 +5230,19 @@
         <v>39889</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29829</v>
+        <v>27050</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53378</v>
+        <v>54337</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1289876975037509</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09645852028820613</v>
+        <v>0.08747107611627278</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1726068582201711</v>
+        <v>0.1757079194345771</v>
       </c>
     </row>
     <row r="29">
@@ -5259,19 +5259,19 @@
         <v>123615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111252</v>
+        <v>111911</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>133078</v>
+        <v>133787</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7769429120242359</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6992406575543537</v>
+        <v>0.7033842331301008</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8364204572871925</v>
+        <v>0.8408802298944509</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -5280,19 +5280,19 @@
         <v>58703</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45885</v>
+        <v>45744</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>72248</v>
+        <v>71916</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3909816665407241</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3056126356567308</v>
+        <v>0.3046716871630121</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4811987262733499</v>
+        <v>0.4789837075885794</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>163</v>
@@ -5301,19 +5301,19 @@
         <v>182317</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>164359</v>
+        <v>164476</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>200409</v>
+        <v>200278</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5895550561079103</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5314859879066138</v>
+        <v>0.5318635304196618</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6480579507206297</v>
+        <v>0.6476348438332098</v>
       </c>
     </row>
     <row r="30">
@@ -5330,19 +5330,19 @@
         <v>12097</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6133</v>
+        <v>6008</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21100</v>
+        <v>21520</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07603168322460925</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03854582745990379</v>
+        <v>0.03776383621743287</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1326175564663606</v>
+        <v>0.135260113331154</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -5351,19 +5351,19 @@
         <v>14549</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8256</v>
+        <v>8329</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23688</v>
+        <v>25381</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09690250607554182</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0549887129418544</v>
+        <v>0.05547367067026653</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1577705910315609</v>
+        <v>0.1690486687718231</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>23</v>
@@ -5372,19 +5372,19 @@
         <v>26646</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17627</v>
+        <v>17549</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38950</v>
+        <v>39421</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08616466624042032</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05699903260451754</v>
+        <v>0.05674889169510033</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1259504119280674</v>
+        <v>0.1274739508014547</v>
       </c>
     </row>
     <row r="31">
@@ -5414,19 +5414,19 @@
         <v>66837</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>53118</v>
+        <v>53966</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>79108</v>
+        <v>79758</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4451577812762993</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3537854468927839</v>
+        <v>0.3594337322184528</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.526888012181692</v>
+        <v>0.531216571610852</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>61</v>
@@ -5435,19 +5435,19 @@
         <v>66837</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52390</v>
+        <v>51390</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>82496</v>
+        <v>82197</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2161283371166808</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1694123313987111</v>
+        <v>0.1661778727463253</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2667667255340186</v>
+        <v>0.2657995010394054</v>
       </c>
     </row>
     <row r="32">
@@ -5468,19 +5468,19 @@
         <v>34637</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23870</v>
+        <v>23857</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47551</v>
+        <v>46552</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1779137768380352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1226111500252501</v>
+        <v>0.1225414202629825</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2442481334515793</v>
+        <v>0.2391146862087347</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -5489,19 +5489,19 @@
         <v>20732</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13125</v>
+        <v>12710</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30657</v>
+        <v>29575</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1338798199879969</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08476020228084445</v>
+        <v>0.08207631062642007</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1979745604005783</v>
+        <v>0.1909894180465451</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>49</v>
@@ -5510,19 +5510,19 @@
         <v>55369</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43083</v>
+        <v>42213</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71593</v>
+        <v>70606</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1584056502592463</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.123256296423379</v>
+        <v>0.1207669186875941</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2048237190334774</v>
+        <v>0.2020000678483428</v>
       </c>
     </row>
     <row r="33">
@@ -5539,19 +5539,19 @@
         <v>149650</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>136115</v>
+        <v>136534</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>161554</v>
+        <v>161984</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7686795079779483</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6991591264837782</v>
+        <v>0.7013132784246671</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8298269408124009</v>
+        <v>0.8320376851896</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>53</v>
@@ -5560,19 +5560,19 @@
         <v>58815</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>47094</v>
+        <v>46600</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>72578</v>
+        <v>70544</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3798117189779944</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3041155489028951</v>
+        <v>0.3009304237351147</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4686898345816679</v>
+        <v>0.4555528354036179</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>184</v>
@@ -5581,19 +5581,19 @@
         <v>208464</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>189469</v>
+        <v>187232</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>227998</v>
+        <v>226501</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5964015072509193</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5420557785123777</v>
+        <v>0.5356578598161572</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6522859183638374</v>
+        <v>0.6480035027803648</v>
       </c>
     </row>
     <row r="34">
@@ -5610,19 +5610,19 @@
         <v>10397</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5381</v>
+        <v>5369</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19004</v>
+        <v>18592</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05340671518401662</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02764003343060834</v>
+        <v>0.02757808609692217</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0976165715187125</v>
+        <v>0.09549819294770545</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>19</v>
@@ -5631,19 +5631,19 @@
         <v>19451</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11367</v>
+        <v>12333</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28060</v>
+        <v>28058</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1256081496458023</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07340336294904941</v>
+        <v>0.07964400037331378</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1812004043393606</v>
+        <v>0.1811901046383284</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -5652,19 +5652,19 @@
         <v>29848</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20610</v>
+        <v>20462</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>41166</v>
+        <v>41263</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08539372755829563</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05896295526313254</v>
+        <v>0.05854006042161856</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.117772142147243</v>
+        <v>0.1180511550193442</v>
       </c>
     </row>
     <row r="35">
@@ -5694,19 +5694,19 @@
         <v>59163</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>45933</v>
+        <v>47538</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>71577</v>
+        <v>72738</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3820544746112139</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.296623716996344</v>
+        <v>0.3069863093571824</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4622209614892183</v>
+        <v>0.4697171684367131</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>54</v>
@@ -5715,19 +5715,19 @@
         <v>59162</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>45155</v>
+        <v>44598</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>74387</v>
+        <v>73979</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1692595347742807</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1291841233950365</v>
+        <v>0.1275922270077378</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2128163866705403</v>
+        <v>0.2116473817877875</v>
       </c>
     </row>
     <row r="36">
@@ -5748,7 +5748,7 @@
         <v>142949</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>166259</v>
@@ -5757,10 +5757,10 @@
         <v>0.1640990119750243</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>69</v>
@@ -5769,19 +5769,19 @@
         <v>78409</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1050939018470466</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>198</v>
@@ -5790,19 +5790,19 @@
         <v>221358</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.136877384938294</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
     </row>
     <row r="37">
@@ -5819,19 +5819,19 @@
         <v>665857</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7643722172471359</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>246</v>
@@ -5840,19 +5840,19 @@
         <v>265986</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3565079779123031</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>849</v>
@@ -5861,19 +5861,19 @@
         <v>931843</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5762066807247643</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
     </row>
     <row r="38">
@@ -5890,19 +5890,19 @@
         <v>59271</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06804048855515352</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>88</v>
@@ -5911,19 +5911,19 @@
         <v>96076</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1287732025962496</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>140</v>
@@ -5932,19 +5932,19 @@
         <v>155347</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09605913451597543</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
     </row>
     <row r="39">
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.003488282222686253</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>301</v>
@@ -5982,19 +5982,19 @@
         <v>323350</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.4333951790317285</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>303</v>
@@ -6003,19 +6003,19 @@
         <v>326389</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2018230566188605</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
     </row>
     <row r="40">
@@ -6293,19 +6293,19 @@
         <v>3846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9091</v>
+        <v>8879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06996476519621153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01755677173684381</v>
+        <v>0.01712902199305146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1653602584434647</v>
+        <v>0.1615157478430596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6314,19 +6314,19 @@
         <v>3846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8836</v>
+        <v>9084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03396978369010693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008193663109001678</v>
+        <v>0.008613302373833802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07803719174704163</v>
+        <v>0.08022784925665444</v>
       </c>
     </row>
     <row r="5">
@@ -6343,19 +6343,19 @@
         <v>47053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39837</v>
+        <v>40416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52377</v>
+        <v>52396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8077434003769984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6838727489400874</v>
+        <v>0.6938060962727518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8991487599668688</v>
+        <v>0.8994711409292825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -6364,19 +6364,19 @@
         <v>23921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15942</v>
+        <v>16813</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31681</v>
+        <v>32259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4351267470861111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2899889203267881</v>
+        <v>0.305834568962354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.576271157015539</v>
+        <v>0.5867849377323741</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -6385,19 +6385,19 @@
         <v>70974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60558</v>
+        <v>59646</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80845</v>
+        <v>81292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6268279484902478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5348375913398351</v>
+        <v>0.5267864397599705</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7140098040116746</v>
+        <v>0.7179547000168391</v>
       </c>
     </row>
     <row r="6">
@@ -6414,19 +6414,19 @@
         <v>11199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5875</v>
+        <v>5856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18415</v>
+        <v>17836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1922565996230015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.100851240033131</v>
+        <v>0.1005288590707177</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3161272510599126</v>
+        <v>0.3061939037272483</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -6435,19 +6435,19 @@
         <v>16211</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9490</v>
+        <v>9822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23491</v>
+        <v>24298</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2948757118324865</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1726177778960329</v>
+        <v>0.178670540090249</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4273014918849543</v>
+        <v>0.4419886352410753</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -6456,19 +6456,19 @@
         <v>27410</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18990</v>
+        <v>18321</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37413</v>
+        <v>38136</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2420809509868759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.167716534517027</v>
+        <v>0.1618034977665985</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3304237239355453</v>
+        <v>0.3368072857634692</v>
       </c>
     </row>
     <row r="7">
@@ -6498,19 +6498,19 @@
         <v>10997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5264</v>
+        <v>5789</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17935</v>
+        <v>18554</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2000327758851909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09574373986974644</v>
+        <v>0.1052989694175435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3262314238430411</v>
+        <v>0.3374988773334274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -6519,19 +6519,19 @@
         <v>10997</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5856</v>
+        <v>5676</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19785</v>
+        <v>19538</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09712131683276935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05171948158305317</v>
+        <v>0.05012639684559922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1747341580957945</v>
+        <v>0.1725555592966974</v>
       </c>
     </row>
     <row r="8">
@@ -6552,19 +6552,19 @@
         <v>12645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7131</v>
+        <v>6417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21063</v>
+        <v>21431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08510850680850082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04799856274685044</v>
+        <v>0.0431947429992982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1417733988272613</v>
+        <v>0.1442474854952611</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -6573,19 +6573,19 @@
         <v>6399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2324</v>
+        <v>2315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13602</v>
+        <v>13225</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06983550801201607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02536599892509758</v>
+        <v>0.02526349228229627</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1484370321050028</v>
+        <v>0.1443233188674082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -6594,19 +6594,19 @@
         <v>19044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11573</v>
+        <v>11622</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28766</v>
+        <v>28356</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07928215104827478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.048181052344417</v>
+        <v>0.04838528941854243</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1197578477619586</v>
+        <v>0.1180484582105237</v>
       </c>
     </row>
     <row r="9">
@@ -6623,19 +6623,19 @@
         <v>117624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>106834</v>
+        <v>106361</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>126229</v>
+        <v>126535</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7917045589719693</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7190749687946079</v>
+        <v>0.715891717717583</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8496183212774023</v>
+        <v>0.8516773109607619</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -6644,19 +6644,19 @@
         <v>26312</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17884</v>
+        <v>18104</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36135</v>
+        <v>36438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2871502254392018</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1951678074873307</v>
+        <v>0.1975743283709772</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.394346858321467</v>
+        <v>0.3976565841745315</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>140</v>
@@ -6665,19 +6665,19 @@
         <v>143937</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>128546</v>
+        <v>127939</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>159007</v>
+        <v>159980</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5992267694626647</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5351529348262247</v>
+        <v>0.5326264083022004</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6619646626570309</v>
+        <v>0.6660161649644688</v>
       </c>
     </row>
     <row r="10">
@@ -6694,19 +6694,19 @@
         <v>18302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11744</v>
+        <v>11506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28489</v>
+        <v>26919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1231869342195299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07904624669364822</v>
+        <v>0.07744721212224283</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1917547139965015</v>
+        <v>0.181187646351651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -6715,19 +6715,19 @@
         <v>6219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2212</v>
+        <v>2887</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12764</v>
+        <v>13246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06787001463737981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02413510341519419</v>
+        <v>0.03150826975707513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.139290508139511</v>
+        <v>0.1445506023893271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -6736,19 +6736,19 @@
         <v>24521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16411</v>
+        <v>16321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35103</v>
+        <v>35489</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1020845916252516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06832291524752024</v>
+        <v>0.06794572121115221</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1461368163252923</v>
+        <v>0.1477451309126923</v>
       </c>
     </row>
     <row r="11">
@@ -6778,19 +6778,19 @@
         <v>54049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44881</v>
+        <v>43673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63654</v>
+        <v>64075</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5898446084206742</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4897916805572456</v>
+        <v>0.476611730749476</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.69465733472005</v>
+        <v>0.6992553712879328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -6799,19 +6799,19 @@
         <v>54049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40027</v>
+        <v>41226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68903</v>
+        <v>69967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2250143915876595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1666393340676988</v>
+        <v>0.1716286497671951</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.286853857975376</v>
+        <v>0.2912828594891704</v>
       </c>
     </row>
     <row r="12">
@@ -6832,19 +6832,19 @@
         <v>5770</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2106</v>
+        <v>2027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13111</v>
+        <v>12971</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06415245467835951</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02341224391726557</v>
+        <v>0.02253476477513648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1457733237749001</v>
+        <v>0.1442148008455134</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6853,19 +6853,19 @@
         <v>3280</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10225</v>
+        <v>8708</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04105218488564413</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01247646413630761</v>
+        <v>0.01212658147151429</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1279764621288492</v>
+        <v>0.1089876151260292</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -6874,19 +6874,19 @@
         <v>9050</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3950</v>
+        <v>4098</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17549</v>
+        <v>16749</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05328550539354195</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02326011694934949</v>
+        <v>0.02412869144851889</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.103327159837439</v>
+        <v>0.09861970689042218</v>
       </c>
     </row>
     <row r="13">
@@ -6903,19 +6903,19 @@
         <v>82267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74838</v>
+        <v>75090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86640</v>
+        <v>86666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9146796572853758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8320767382827112</v>
+        <v>0.8348771329458307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9632947970817338</v>
+        <v>0.9635849759626854</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -6924,19 +6924,19 @@
         <v>49422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40563</v>
+        <v>40772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58508</v>
+        <v>58445</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6185821011887316</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5076983754986018</v>
+        <v>0.5103223912904479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7323092313511362</v>
+        <v>0.7315167327781984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -6945,19 +6945,19 @@
         <v>131690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119705</v>
+        <v>120863</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142429</v>
+        <v>142908</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7753879020663375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7048210663839092</v>
+        <v>0.7116401264907107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8386207925407766</v>
+        <v>0.841439238013598</v>
       </c>
     </row>
     <row r="14">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4961</v>
+        <v>4975</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01077748319449166</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05516049262206886</v>
+        <v>0.05531232727114013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6995,19 +6995,19 @@
         <v>7483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3530</v>
+        <v>3506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15227</v>
+        <v>15058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09365925423510207</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04418706701910732</v>
+        <v>0.0438847891967546</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1905929124297885</v>
+        <v>0.1884741978853746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -7016,19 +7016,19 @@
         <v>8452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3765</v>
+        <v>3866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15373</v>
+        <v>15167</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04976715780072501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02216663598859781</v>
+        <v>0.02276100832197523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09051357200580379</v>
+        <v>0.08930293592273386</v>
       </c>
     </row>
     <row r="15">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5669</v>
+        <v>4756</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01039040484177305</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06302903106871698</v>
+        <v>0.05287927208499405</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>18</v>
@@ -7066,19 +7066,19 @@
         <v>20595</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12556</v>
+        <v>12275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29765</v>
+        <v>29708</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.257776093510808</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1571602892238233</v>
+        <v>0.1536354257219428</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3725575921363747</v>
+        <v>0.3718370222841089</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>19</v>
@@ -7087,19 +7087,19 @@
         <v>21530</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13854</v>
+        <v>13514</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31155</v>
+        <v>30990</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1267668695618443</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08157106827777166</v>
+        <v>0.07956932624844047</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1834378533359375</v>
+        <v>0.1824714254591482</v>
       </c>
     </row>
     <row r="16">
@@ -7120,19 +7120,19 @@
         <v>11782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6300</v>
+        <v>6245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20317</v>
+        <v>19618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1220234238398895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06524587856375987</v>
+        <v>0.06467989601988818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2104175144307971</v>
+        <v>0.2031785180263733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7141,19 +7141,19 @@
         <v>5897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2696</v>
+        <v>2076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12092</v>
+        <v>11148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07616414140139512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03481783950455164</v>
+        <v>0.0268158620526608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1561777455340909</v>
+        <v>0.1439785522255773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -7162,19 +7162,19 @@
         <v>17679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10519</v>
+        <v>11226</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26036</v>
+        <v>27514</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1016147918832214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06046403360576272</v>
+        <v>0.06452487764898701</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1496519612192424</v>
+        <v>0.1581449450246315</v>
       </c>
     </row>
     <row r="17">
@@ -7191,19 +7191,19 @@
         <v>80652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71599</v>
+        <v>71442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86798</v>
+        <v>87393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8353016198308696</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7415472065670969</v>
+        <v>0.7399158874295027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8989578915098601</v>
+        <v>0.9051215493817463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -7212,19 +7212,19 @@
         <v>37628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27391</v>
+        <v>28647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47012</v>
+        <v>48218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4859804788466377</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3537690351519519</v>
+        <v>0.369990171729469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6071879307447928</v>
+        <v>0.622759792052908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -7233,19 +7233,19 @@
         <v>118279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104218</v>
+        <v>105313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129520</v>
+        <v>129806</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6798441808578096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5990277231486348</v>
+        <v>0.6053196204320346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.744460047089097</v>
+        <v>0.7461013361437935</v>
       </c>
     </row>
     <row r="18">
@@ -7262,19 +7262,19 @@
         <v>4120</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10314</v>
+        <v>10161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04267495632924093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0110088698173362</v>
+        <v>0.0109042761292641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1068235412254739</v>
+        <v>0.1052353929995721</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -7286,16 +7286,16 @@
         <v>859</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8424</v>
+        <v>8005</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03512083308972336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01109248086922036</v>
+        <v>0.01109658659716793</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1088054412086057</v>
+        <v>0.1033889083915358</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -7304,19 +7304,19 @@
         <v>6840</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2968</v>
+        <v>2866</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13963</v>
+        <v>13553</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03931316537323554</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01706044431300716</v>
+        <v>0.0164719671176884</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08025948957527961</v>
+        <v>0.07789938157749692</v>
       </c>
     </row>
     <row r="19">
@@ -7346,19 +7346,19 @@
         <v>32198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23217</v>
+        <v>22508</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41860</v>
+        <v>41692</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4158607693353491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2998607693190794</v>
+        <v>0.290707520715318</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5406466698997799</v>
+        <v>0.5384710465078832</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -7367,19 +7367,19 @@
         <v>32198</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21848</v>
+        <v>21959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43850</v>
+        <v>44777</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.185069389124542</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1255804025577284</v>
+        <v>0.1262161349746382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2520391612917508</v>
+        <v>0.2573724890457371</v>
       </c>
     </row>
     <row r="20">
@@ -7400,19 +7400,19 @@
         <v>8555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4070</v>
+        <v>4121</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15528</v>
+        <v>15962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1282239383355177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0610099949491352</v>
+        <v>0.06176154799957551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2327425707742659</v>
+        <v>0.2392488719144306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5662</v>
+        <v>6969</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03232941546233237</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09899315091023846</v>
+        <v>0.1218364344247032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -7442,19 +7442,19 @@
         <v>10404</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4958</v>
+        <v>5034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18359</v>
+        <v>18491</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08396098301697981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0400128009829287</v>
+        <v>0.0406275546012717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1481551991060034</v>
+        <v>0.1492194989206273</v>
       </c>
     </row>
     <row r="21">
@@ -7471,19 +7471,19 @@
         <v>55276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47689</v>
+        <v>47296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60493</v>
+        <v>60631</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.828499815619858</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7147898315891736</v>
+        <v>0.7088908794248417</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.906690522941082</v>
+        <v>0.9087591149608961</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -7492,19 +7492,19 @@
         <v>15614</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9498</v>
+        <v>9824</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23205</v>
+        <v>23793</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2729777568850781</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1660571553560835</v>
+        <v>0.1717644525708164</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4056971987300562</v>
+        <v>0.4159853844517458</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>74</v>
@@ -7513,19 +7513,19 @@
         <v>70890</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58606</v>
+        <v>59143</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81020</v>
+        <v>81195</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5720821670670071</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4729502118752919</v>
+        <v>0.4772871816311418</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6538336667400857</v>
+        <v>0.6552441991021538</v>
       </c>
     </row>
     <row r="22">
@@ -7542,19 +7542,19 @@
         <v>2887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7700</v>
+        <v>7913</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04327624604462429</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01401875250608765</v>
+        <v>0.01375228729267932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.11540847720045</v>
+        <v>0.118601899284069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -7563,19 +7563,19 @@
         <v>28501</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21002</v>
+        <v>20978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36797</v>
+        <v>36374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4982922018907599</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3671889467038297</v>
+        <v>0.3667755028998358</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.643331568072014</v>
+        <v>0.6359419605520532</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -7584,19 +7584,19 @@
         <v>31388</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23044</v>
+        <v>22961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42660</v>
+        <v>42982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.253302328029241</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1859687465966894</v>
+        <v>0.1852971172582135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3442714605594641</v>
+        <v>0.3468656907211383</v>
       </c>
     </row>
     <row r="23">
@@ -7626,19 +7626,19 @@
         <v>11234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5612</v>
+        <v>6289</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17994</v>
+        <v>18715</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1964006257618297</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09811645445677665</v>
+        <v>0.1099515104427044</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3145923798980355</v>
+        <v>0.3271972410222894</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -7647,19 +7647,19 @@
         <v>11233</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5693</v>
+        <v>5597</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19391</v>
+        <v>18937</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09065452188677216</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04594460131196265</v>
+        <v>0.04516481524229334</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1564853950779187</v>
+        <v>0.1528262975814521</v>
       </c>
     </row>
     <row r="24">
@@ -7680,19 +7680,19 @@
         <v>6664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2698</v>
+        <v>2662</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13674</v>
+        <v>12970</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09013243913325177</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0364876780848477</v>
+        <v>0.03600420092593253</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.184935859351157</v>
+        <v>0.1754237100624519</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7714,19 +7714,19 @@
         <v>6664</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2612</v>
+        <v>2708</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13266</v>
+        <v>13445</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05636524656477451</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02209200535719993</v>
+        <v>0.02290266423131298</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.112199258422237</v>
+        <v>0.1137195478664318</v>
       </c>
     </row>
     <row r="25">
@@ -7743,19 +7743,19 @@
         <v>64096</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56518</v>
+        <v>57010</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68719</v>
+        <v>69000</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8668826536622021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7643968562221669</v>
+        <v>0.7710543427274332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9294164073791654</v>
+        <v>0.9332197150077289</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7764,19 +7764,19 @@
         <v>14985</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8866</v>
+        <v>8763</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22530</v>
+        <v>22336</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3383132547552288</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2001608668282286</v>
+        <v>0.1978294165634819</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5086473256942012</v>
+        <v>0.504257494627056</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -7785,19 +7785,19 @@
         <v>79081</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67647</v>
+        <v>68391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88585</v>
+        <v>90208</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6688595573127389</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5721524188003875</v>
+        <v>0.5784450036071366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7492449845166506</v>
+        <v>0.762974456025832</v>
       </c>
     </row>
     <row r="26">
@@ -7814,19 +7814,19 @@
         <v>3178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8570</v>
+        <v>8638</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04298490720454616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01307546678065744</v>
+        <v>0.01284133890673093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1159020850603239</v>
+        <v>0.1168279449758094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -7835,19 +7835,19 @@
         <v>3331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9399</v>
+        <v>8895</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07520425900060154</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02088519015776449</v>
+        <v>0.02099559015234275</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2121955494297897</v>
+        <v>0.2008235643352187</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -7856,19 +7856,19 @@
         <v>6509</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2584</v>
+        <v>2175</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13670</v>
+        <v>12984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05505555642907763</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02185522942549546</v>
+        <v>0.0183925465994428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1156189504007226</v>
+        <v>0.1098193324691845</v>
       </c>
     </row>
     <row r="27">
@@ -7898,19 +7898,19 @@
         <v>25978</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>18292</v>
+        <v>18252</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32565</v>
+        <v>32126</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5864824862441697</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4129736362111989</v>
+        <v>0.4120712358372167</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7351982243230002</v>
+        <v>0.7252870843379887</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>22</v>
@@ -7919,19 +7919,19 @@
         <v>25978</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>17901</v>
+        <v>17329</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>36553</v>
+        <v>35841</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2197196396934089</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1514079607135802</v>
+        <v>0.146570514599444</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3091602439616155</v>
+        <v>0.3031384233553898</v>
       </c>
     </row>
     <row r="28">
@@ -7952,19 +7952,19 @@
         <v>9384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4303</v>
+        <v>4286</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17944</v>
+        <v>17245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0610657281491688</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02799707188926112</v>
+        <v>0.02789125087083029</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1167626344176868</v>
+        <v>0.1122181011107539</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -7973,19 +7973,19 @@
         <v>12102</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6484</v>
+        <v>6127</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22154</v>
+        <v>20557</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07925299036314848</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04246302009105157</v>
+        <v>0.04012187116011139</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1450841003474134</v>
+        <v>0.1346272019876018</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -7994,19 +7994,19 @@
         <v>21486</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13295</v>
+        <v>13420</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32893</v>
+        <v>32853</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0701303075311383</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04339562588989924</v>
+        <v>0.0438031719731338</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1073607038650336</v>
+        <v>0.1072305431179899</v>
       </c>
     </row>
     <row r="29">
@@ -8023,19 +8023,19 @@
         <v>134611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124100</v>
+        <v>123929</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>141875</v>
+        <v>142719</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8759332847875372</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8075351541569905</v>
+        <v>0.8064248503774821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9232015364001632</v>
+        <v>0.9286939770716881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -8044,19 +8044,19 @@
         <v>69113</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>56732</v>
+        <v>56008</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82918</v>
+        <v>82504</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4526067144352979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3715279097708728</v>
+        <v>0.3667865597213488</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5430145111590003</v>
+        <v>0.5403067830804242</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>185</v>
@@ -8065,19 +8065,19 @@
         <v>203724</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>184083</v>
+        <v>185336</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>220717</v>
+        <v>220634</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6649462073314679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6008391962573403</v>
+        <v>0.6049285601852633</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7204130336692028</v>
+        <v>0.720142561084988</v>
       </c>
     </row>
     <row r="30">
@@ -8094,19 +8094,19 @@
         <v>9682</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4320</v>
+        <v>4340</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17334</v>
+        <v>17632</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06300098706329407</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02811147385203449</v>
+        <v>0.02824405324317003</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1127919187922813</v>
+        <v>0.1147327183113528</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -8115,19 +8115,19 @@
         <v>20355</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12597</v>
+        <v>12883</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31132</v>
+        <v>30931</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1333046576627399</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08249837201706603</v>
+        <v>0.08437059572106589</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2038758936125341</v>
+        <v>0.2025591650554456</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>27</v>
@@ -8136,19 +8136,19 @@
         <v>30037</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20454</v>
+        <v>20417</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44159</v>
+        <v>43080</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0980405216284619</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06676014193325808</v>
+        <v>0.06664092413149819</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1441326024791756</v>
+        <v>0.1406128331512216</v>
       </c>
     </row>
     <row r="31">
@@ -8178,19 +8178,19 @@
         <v>54442</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41674</v>
+        <v>41580</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>67221</v>
+        <v>68008</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3565310367867749</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2729161143014649</v>
+        <v>0.2723023196842744</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4402162776031798</v>
+        <v>0.4453732259947594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>46</v>
@@ -8199,19 +8199,19 @@
         <v>54442</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39693</v>
+        <v>41162</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>69617</v>
+        <v>70382</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1776960076270016</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1295558102192683</v>
+        <v>0.1343505961581057</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.22722850704327</v>
+        <v>0.2297236119718398</v>
       </c>
     </row>
     <row r="32">
@@ -8232,19 +8232,19 @@
         <v>33508</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24041</v>
+        <v>23908</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47011</v>
+        <v>46122</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1568859479314239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1125588312800984</v>
+        <v>0.1119380725693896</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2201083207476795</v>
+        <v>0.215944426398683</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -8253,19 +8253,19 @@
         <v>20230</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11996</v>
+        <v>12486</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31046</v>
+        <v>30309</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1130653151326479</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0670441400888879</v>
+        <v>0.06978382515384839</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.173516144676772</v>
+        <v>0.1693966301036773</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -8274,19 +8274,19 @@
         <v>53738</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>41079</v>
+        <v>40453</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70943</v>
+        <v>70263</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.136910335495897</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1046593017579617</v>
+        <v>0.1030646436240567</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1807437246976263</v>
+        <v>0.1790120509082326</v>
       </c>
     </row>
     <row r="33">
@@ -8303,19 +8303,19 @@
         <v>171041</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>157447</v>
+        <v>157613</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>182179</v>
+        <v>181896</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8008199248837421</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7371730005586408</v>
+        <v>0.7379514537503837</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8529684751651669</v>
+        <v>0.8516458915880174</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>67</v>
@@ -8324,19 +8324,19 @@
         <v>81219</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>67744</v>
+        <v>66661</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>96412</v>
+        <v>95449</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4539334874350178</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.378622839594102</v>
+        <v>0.3725692775194155</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5388445729879808</v>
+        <v>0.533462258160008</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>241</v>
@@ -8345,19 +8345,19 @@
         <v>252260</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>231560</v>
+        <v>230811</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>269986</v>
+        <v>272879</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6426919246461484</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5899526965517631</v>
+        <v>0.588044342621224</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6878508230029431</v>
+        <v>0.6952236569402152</v>
       </c>
     </row>
     <row r="34">
@@ -8374,19 +8374,19 @@
         <v>9033</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4102</v>
+        <v>4206</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17298</v>
+        <v>17909</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04229412718483402</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0192069289196859</v>
+        <v>0.01969386939027528</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08098896882464296</v>
+        <v>0.08385036131943294</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>21</v>
@@ -8395,19 +8395,19 @@
         <v>23568</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14712</v>
+        <v>14927</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>34253</v>
+        <v>34986</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1317188939806879</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08222647851872827</v>
+        <v>0.08342677868170396</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.191439507194003</v>
+        <v>0.195535058523022</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -8416,19 +8416,19 @@
         <v>32601</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22188</v>
+        <v>21413</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44612</v>
+        <v>44698</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08305836013998309</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0565291155223371</v>
+        <v>0.05455569265691234</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.113660026196497</v>
+        <v>0.1138791750275619</v>
       </c>
     </row>
     <row r="35">
@@ -8458,19 +8458,19 @@
         <v>54985</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41978</v>
+        <v>41317</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>68610</v>
+        <v>68675</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3073114575272267</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2346167141246729</v>
+        <v>0.2309218164798762</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3834635854685773</v>
+        <v>0.383821570914895</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>45</v>
@@ -8479,19 +8479,19 @@
         <v>54985</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41893</v>
+        <v>41603</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>71446</v>
+        <v>72439</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1400877664352722</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1067312409269938</v>
+        <v>0.105992797351174</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1820244397786945</v>
+        <v>0.1845560665106143</v>
       </c>
     </row>
     <row r="36">
@@ -8512,19 +8512,19 @@
         <v>88308</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09798565194205118</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>49</v>
@@ -8533,19 +8533,19 @@
         <v>53603</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07272783861075721</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>129</v>
@@ -8554,19 +8554,19 @@
         <v>141911</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08662244059720534</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
     </row>
     <row r="37">
@@ -8583,19 +8583,19 @@
         <v>752619</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8350991170595234</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>275</v>
@@ -8604,19 +8604,19 @@
         <v>318213</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4317436611666445</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1041</v>
@@ -8625,19 +8625,19 @@
         <v>1070832</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6536339509230447</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
     </row>
     <row r="38">
@@ -8654,19 +8654,19 @@
         <v>59372</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06587829093120284</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>99</v>
@@ -8675,19 +8675,19 @@
         <v>108387</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1470565483102262</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>154</v>
@@ -8696,19 +8696,19 @@
         <v>167759</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1023994926324301</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
     </row>
     <row r="39">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001036940067222523</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>220</v>
@@ -8746,19 +8746,19 @@
         <v>264478</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3588368610137004</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>221</v>
@@ -8767,19 +8767,19 @@
         <v>265412</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1620071740124772</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
     </row>
     <row r="40">
@@ -9057,19 +9057,19 @@
         <v>15537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11538</v>
+        <v>11660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19687</v>
+        <v>19688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4953827647694161</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3678854798104268</v>
+        <v>0.3717704759598487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6277078030623598</v>
+        <v>0.6277307173192959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -9078,19 +9078,19 @@
         <v>15537</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11113</v>
+        <v>10815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20382</v>
+        <v>20278</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2741493787313757</v>
+        <v>0.2741493787313758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1960790096423904</v>
+        <v>0.190822781155101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3596437050027149</v>
+        <v>0.35780242560123</v>
       </c>
     </row>
     <row r="5">
@@ -9107,19 +9107,19 @@
         <v>14345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9851</v>
+        <v>10587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18764</v>
+        <v>18940</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5667624598291884</v>
+        <v>0.5667624598291883</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3892178401965159</v>
+        <v>0.4182922018929501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7413800117836058</v>
+        <v>0.7483263851212015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -9128,19 +9128,19 @@
         <v>5447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2874</v>
+        <v>2952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8861</v>
+        <v>8868</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1736730019725948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0916487639250629</v>
+        <v>0.09410995113660309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2825064191540628</v>
+        <v>0.2827576198227599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -9149,19 +9149,19 @@
         <v>19792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14556</v>
+        <v>14663</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25300</v>
+        <v>25698</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3492231380738191</v>
+        <v>0.3492231380738192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2568354029092005</v>
+        <v>0.2587209567060218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4464151823667979</v>
+        <v>0.4534398081274872</v>
       </c>
     </row>
     <row r="6">
@@ -9178,19 +9178,19 @@
         <v>7073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3317</v>
+        <v>3216</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11456</v>
+        <v>11191</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2794508353241875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1310610547312231</v>
+        <v>0.1270446778979172</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4526095091364482</v>
+        <v>0.4421382827568229</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -9199,19 +9199,19 @@
         <v>8473</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4984</v>
+        <v>5170</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12411</v>
+        <v>13126</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2701538407755606</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1589060963833391</v>
+        <v>0.1648335567314093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3957056344764941</v>
+        <v>0.418517602902839</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -9220,19 +9220,19 @@
         <v>15546</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10651</v>
+        <v>10603</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21004</v>
+        <v>21828</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2743057930238939</v>
+        <v>0.274305793023894</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1879275072956351</v>
+        <v>0.1870921033742984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3706109262796758</v>
+        <v>0.3851517871455945</v>
       </c>
     </row>
     <row r="7">
@@ -9249,19 +9249,19 @@
         <v>3892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1511</v>
+        <v>1417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8300</v>
+        <v>7805</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1537867048466241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05969823896465476</v>
+        <v>0.05598565523033282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.327953334777283</v>
+        <v>0.3083887556304712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -9270,19 +9270,19 @@
         <v>1907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4364</v>
+        <v>4381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06079039248242855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01538441475331931</v>
+        <v>0.01516656352533167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1391468425232743</v>
+        <v>0.1396773453583696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -9291,19 +9291,19 @@
         <v>5799</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3062</v>
+        <v>2718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10084</v>
+        <v>10028</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1023216901709114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0540289931126464</v>
+        <v>0.04796289715980222</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1779279121437683</v>
+        <v>0.176948649782016</v>
       </c>
     </row>
     <row r="8">
@@ -9337,19 +9337,19 @@
         <v>55598</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47264</v>
+        <v>46741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64872</v>
+        <v>65210</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.437818485626435</v>
+        <v>0.4378184856264349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3721880612717336</v>
+        <v>0.3680733314542381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5108469938184179</v>
+        <v>0.5135054181057994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>87</v>
@@ -9358,19 +9358,19 @@
         <v>55598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45466</v>
+        <v>44760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67399</v>
+        <v>65718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2058810904649779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1683634021154689</v>
+        <v>0.1657484112291367</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2495809646716323</v>
+        <v>0.2433551032674268</v>
       </c>
     </row>
     <row r="9">
@@ -9387,19 +9387,19 @@
         <v>94210</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81861</v>
+        <v>82637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104579</v>
+        <v>105673</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6585342021814723</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5722137922291661</v>
+        <v>0.5776381935117206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7310143702259511</v>
+        <v>0.7386642978613597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -9408,19 +9408,19 @@
         <v>33001</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25432</v>
+        <v>25744</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40737</v>
+        <v>41033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2598740617830845</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2002698851734018</v>
+        <v>0.202727427445424</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3207952973025011</v>
+        <v>0.3231262280256961</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>152</v>
@@ -9429,19 +9429,19 @@
         <v>127211</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>113192</v>
+        <v>112858</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141870</v>
+        <v>141954</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4710670505542283</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4191531217296642</v>
+        <v>0.4179172238782657</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5253478931228182</v>
+        <v>0.5256616318080151</v>
       </c>
     </row>
     <row r="10">
@@ -9458,19 +9458,19 @@
         <v>23582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14369</v>
+        <v>15673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33650</v>
+        <v>34067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1648418046561862</v>
+        <v>0.1648418046561863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1004382800696917</v>
+        <v>0.1095560509820498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2352157874961349</v>
+        <v>0.2381303822614659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -9479,19 +9479,19 @@
         <v>27131</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19649</v>
+        <v>20213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33911</v>
+        <v>35932</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2136472859337144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1547300877550198</v>
+        <v>0.1591727974485625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2670411559005887</v>
+        <v>0.2829511198990806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -9500,19 +9500,19 @@
         <v>50713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39935</v>
+        <v>39337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64063</v>
+        <v>63748</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1877922419628902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.147879513136381</v>
+        <v>0.1456650964068354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2372255782029147</v>
+        <v>0.2360626493021578</v>
       </c>
     </row>
     <row r="11">
@@ -9529,19 +9529,19 @@
         <v>25268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16806</v>
+        <v>16143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36278</v>
+        <v>36066</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1766239931623413</v>
+        <v>0.1766239931623414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1174751507806514</v>
+        <v>0.1128416612475308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2535883618953826</v>
+        <v>0.2521036779104178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -9550,19 +9550,19 @@
         <v>11259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6546</v>
+        <v>6660</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18069</v>
+        <v>17142</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08866016665676614</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05154833423840806</v>
+        <v>0.05244518088577937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1422878612375481</v>
+        <v>0.1349853489545517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -9571,19 +9571,19 @@
         <v>36527</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26857</v>
+        <v>26053</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49709</v>
+        <v>48774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1352596170179037</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09945335482643579</v>
+        <v>0.09647622480627134</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1840749365234985</v>
+        <v>0.18061044272709</v>
       </c>
     </row>
     <row r="12">
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4146</v>
+        <v>4191</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009393900651503936</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0460253596128355</v>
+        <v>0.04652353406155854</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -9625,19 +9625,19 @@
         <v>37929</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32337</v>
+        <v>31335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45795</v>
+        <v>44823</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4405075189405808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3755586866205542</v>
+        <v>0.363914602739201</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5318580599549488</v>
+        <v>0.5205650727591439</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -9646,19 +9646,19 @@
         <v>38776</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31142</v>
+        <v>31086</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>48216</v>
+        <v>46428</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2200725735379492</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1767476323861008</v>
+        <v>0.1764313681798634</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2736503928720828</v>
+        <v>0.2635018345662865</v>
       </c>
     </row>
     <row r="13">
@@ -9675,19 +9675,19 @@
         <v>54415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46917</v>
+        <v>47500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61795</v>
+        <v>61543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6040005022102231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5207780025902488</v>
+        <v>0.5272404399755408</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6859228439686766</v>
+        <v>0.6831251688392911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -9696,19 +9696,19 @@
         <v>30836</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24115</v>
+        <v>24788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36682</v>
+        <v>37874</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3581225145446877</v>
+        <v>0.3581225145446878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2800658031809404</v>
+        <v>0.2878828605611642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4260178951489724</v>
+        <v>0.4398617220454061</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -9717,19 +9717,19 @@
         <v>85251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75490</v>
+        <v>73943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96292</v>
+        <v>95033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4838436666666282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4284434354888475</v>
+        <v>0.419665873617284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5465060867887754</v>
+        <v>0.5393634080967913</v>
       </c>
     </row>
     <row r="14">
@@ -9746,19 +9746,19 @@
         <v>5281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10537</v>
+        <v>10356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05861767061253334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02046537393997586</v>
+        <v>0.02053442225684245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1169635910480113</v>
+        <v>0.1149507399378332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -9767,19 +9767,19 @@
         <v>9090</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5731</v>
+        <v>5305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14305</v>
+        <v>14256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1055689822846378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06656427410313043</v>
+        <v>0.06161107859652133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1661417150603594</v>
+        <v>0.1655684866591723</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -9788,19 +9788,19 @@
         <v>14371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9345</v>
+        <v>9399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21394</v>
+        <v>21174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08156206302725902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05303944501182782</v>
+        <v>0.05334327179503315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1214242292920777</v>
+        <v>0.1201729249076368</v>
       </c>
     </row>
     <row r="15">
@@ -9817,19 +9817,19 @@
         <v>29549</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22533</v>
+        <v>22783</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>36830</v>
+        <v>37019</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3279879265257397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2501083522017739</v>
+        <v>0.252887724343425</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4088045247368926</v>
+        <v>0.4109023746477283</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -9838,19 +9838,19 @@
         <v>8249</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4811</v>
+        <v>5140</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12487</v>
+        <v>13460</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.0958009842300936</v>
+        <v>0.09580098423009363</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05587876999201188</v>
+        <v>0.05969801361197956</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1450198612183345</v>
+        <v>0.1563169657421985</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -9859,19 +9859,19 @@
         <v>37798</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>29264</v>
+        <v>29484</v>
       </c>
       <c r="T15" s="5" t="n">
         <v>46549</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2145216967681637</v>
+        <v>0.2145216967681636</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1660864338545268</v>
+        <v>0.1673354288166023</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.264191762433792</v>
+        <v>0.2641923788599028</v>
       </c>
     </row>
     <row r="16">
@@ -9905,19 +9905,19 @@
         <v>27422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21188</v>
+        <v>21642</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33497</v>
+        <v>33731</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3186213479801896</v>
+        <v>0.3186213479801897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2461881391684184</v>
+        <v>0.2514543170960072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3891957998698169</v>
+        <v>0.391921090990595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -9926,19 +9926,19 @@
         <v>27422</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21462</v>
+        <v>21951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35289</v>
+        <v>34668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1567170623958982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1226514101483199</v>
+        <v>0.1254497818108673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2016765791719131</v>
+        <v>0.1981236010809746</v>
       </c>
     </row>
     <row r="17">
@@ -9955,19 +9955,19 @@
         <v>77217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66946</v>
+        <v>69095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83129</v>
+        <v>84183</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8684450383621307</v>
+        <v>0.8684450383621306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7529329899739454</v>
+        <v>0.7770958271252729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9349359930311412</v>
+        <v>0.946794236135958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -9976,19 +9976,19 @@
         <v>45898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39656</v>
+        <v>39463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51670</v>
+        <v>52405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5332865521624257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4607601025095481</v>
+        <v>0.4585161889652097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6003566340299636</v>
+        <v>0.6088944984835041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -9997,19 +9997,19 @@
         <v>123115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112223</v>
+        <v>112747</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133091</v>
+        <v>132232</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7035940209169981</v>
+        <v>0.703594020916998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6413491354242267</v>
+        <v>0.6443398709500424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.760607586846056</v>
+        <v>0.755695201358401</v>
       </c>
     </row>
     <row r="18">
@@ -10026,19 +10026,19 @@
         <v>10622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5503</v>
+        <v>4212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20863</v>
+        <v>18676</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1194674880457757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06188672253291791</v>
+        <v>0.04737175758435927</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2346413092909979</v>
+        <v>0.2100410774858631</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -10047,19 +10047,19 @@
         <v>8170</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4469</v>
+        <v>4556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13616</v>
+        <v>13932</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09492450021633886</v>
+        <v>0.09492450021633889</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05192278535709167</v>
+        <v>0.05293322733459138</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1582048105195919</v>
+        <v>0.1618804712618379</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -10068,19 +10068,19 @@
         <v>18792</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11654</v>
+        <v>12053</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30074</v>
+        <v>29025</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1073957766572256</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06660130433091341</v>
+        <v>0.06888063796781115</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1718696971250997</v>
+        <v>0.1658765642785867</v>
       </c>
     </row>
     <row r="19">
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5410</v>
+        <v>6061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01208747359209373</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06084138085841427</v>
+        <v>0.06817157473160065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -10118,19 +10118,19 @@
         <v>4576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8624</v>
+        <v>8464</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05316759964104587</v>
+        <v>0.05316759964104588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02454298780682537</v>
+        <v>0.024373842624181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.100199062996751</v>
+        <v>0.09834470769337676</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -10139,19 +10139,19 @@
         <v>5651</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2773</v>
+        <v>2569</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10258</v>
+        <v>10763</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03229314002987831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01584979280493849</v>
+        <v>0.01468433528734397</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05862652790008314</v>
+        <v>0.06151155313607799</v>
       </c>
     </row>
     <row r="20">
@@ -10185,19 +10185,19 @@
         <v>14518</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10893</v>
+        <v>11219</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18661</v>
+        <v>18524</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.335509996088154</v>
+        <v>0.3355099960881539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2517400050461185</v>
+        <v>0.2592639080777239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.431258382930762</v>
+        <v>0.4280808374338344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -10206,19 +10206,19 @@
         <v>14518</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10438</v>
+        <v>10670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18761</v>
+        <v>19127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1892140704002667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1360381100063598</v>
+        <v>0.1390594079098182</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.244517225477446</v>
+        <v>0.2492790911313713</v>
       </c>
     </row>
     <row r="21">
@@ -10235,19 +10235,19 @@
         <v>14783</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10602</v>
+        <v>10679</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18662</v>
+        <v>19190</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4418527115006519</v>
+        <v>0.4418527115006518</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3168928879966886</v>
+        <v>0.3191776029198591</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5577971020945423</v>
+        <v>0.5735754320988025</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -10256,19 +10256,19 @@
         <v>14126</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10594</v>
+        <v>10714</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18084</v>
+        <v>18176</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3264460995551257</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2448134140782467</v>
+        <v>0.2476061193642934</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4179042904000108</v>
+        <v>0.4200440496108912</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -10277,19 +10277,19 @@
         <v>28909</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23784</v>
+        <v>23435</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35017</v>
+        <v>34334</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3767680491897872</v>
+        <v>0.3767680491897871</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3099788681356824</v>
+        <v>0.305425507162784</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4563745665573171</v>
+        <v>0.4474730456113699</v>
       </c>
     </row>
     <row r="22">
@@ -10306,19 +10306,19 @@
         <v>14490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10552</v>
+        <v>10363</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18669</v>
+        <v>18362</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4330835535670509</v>
+        <v>0.4330835535670508</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.31539877173468</v>
+        <v>0.3097317342396443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5580083630142691</v>
+        <v>0.5488276836150514</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -10327,19 +10327,19 @@
         <v>10267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6957</v>
+        <v>6637</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14138</v>
+        <v>13400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2372603339747034</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1607731298882832</v>
+        <v>0.1533857624053397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3267194544322813</v>
+        <v>0.309678643885259</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -10348,19 +10348,19 @@
         <v>24756</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19814</v>
+        <v>19643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30197</v>
+        <v>30201</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3226471764398016</v>
+        <v>0.3226471764398015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2582349352108667</v>
+        <v>0.2560118252146968</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3935573030013949</v>
+        <v>0.393605265697907</v>
       </c>
     </row>
     <row r="23">
@@ -10377,19 +10377,19 @@
         <v>4184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1801</v>
+        <v>1917</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7458</v>
+        <v>7892</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1250637349322973</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05382167411274583</v>
+        <v>0.05728463027910557</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.222914434013232</v>
+        <v>0.2358769476355472</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -10398,19 +10398,19 @@
         <v>4361</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2336</v>
+        <v>2249</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7251</v>
+        <v>7210</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1007835703820172</v>
+        <v>0.1007835703820171</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05399166190405687</v>
+        <v>0.05196602288627871</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1675573108124749</v>
+        <v>0.1666145589010697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -10419,19 +10419,19 @@
         <v>8545</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5212</v>
+        <v>5586</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13284</v>
+        <v>13154</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1113707039701448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06793463188759494</v>
+        <v>0.07279669787880118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1731316363135841</v>
+        <v>0.1714363919719002</v>
       </c>
     </row>
     <row r="24">
@@ -10452,19 +10452,19 @@
         <v>2663</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5891</v>
+        <v>5794</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03366679599744458</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01189163751024398</v>
+        <v>0.01163817164744185</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07448741369143146</v>
+        <v>0.07325727646671208</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -10473,19 +10473,19 @@
         <v>36414</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31517</v>
+        <v>31427</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41682</v>
+        <v>41909</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.594049414544763</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5141554251594421</v>
+        <v>0.5126848133038928</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6799973887489646</v>
+        <v>0.6836993139984826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>102</v>
@@ -10494,19 +10494,19 @@
         <v>39077</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32131</v>
+        <v>32572</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46229</v>
+        <v>46214</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2783551887020054</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2288818869407415</v>
+        <v>0.2320222428855581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3293072638776676</v>
+        <v>0.3291976055641332</v>
       </c>
     </row>
     <row r="25">
@@ -10523,19 +10523,19 @@
         <v>47105</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40862</v>
+        <v>40445</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53189</v>
+        <v>53279</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5956136529243002</v>
+        <v>0.5956136529243004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5166794478061871</v>
+        <v>0.5113990288257324</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6725477911105504</v>
+        <v>0.6736893764913161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -10544,19 +10544,19 @@
         <v>12982</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17228</v>
+        <v>17385</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2117887606385331</v>
+        <v>0.2117887606385332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1484258944069771</v>
+        <v>0.1484123125161038</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2810493255078325</v>
+        <v>0.28361349866299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>134</v>
@@ -10565,19 +10565,19 @@
         <v>60087</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51716</v>
+        <v>52031</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>67888</v>
+        <v>67945</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4280183477435863</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3683923534035781</v>
+        <v>0.370631938064125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4835879961722533</v>
+        <v>0.483995959882664</v>
       </c>
     </row>
     <row r="26">
@@ -10594,19 +10594,19 @@
         <v>10321</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6018</v>
+        <v>6097</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16639</v>
+        <v>16237</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1305038193048135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07609789617376569</v>
+        <v>0.07708937273580128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2103968216110431</v>
+        <v>0.2053023221481462</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -10615,19 +10615,19 @@
         <v>3841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1616</v>
+        <v>1816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6975</v>
+        <v>6940</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06266766070928316</v>
+        <v>0.06266766070928317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02635664102846956</v>
+        <v>0.02963107443783783</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1137939013091989</v>
+        <v>0.1132195972913305</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -10636,19 +10636,19 @@
         <v>14162</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9060</v>
+        <v>9325</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20270</v>
+        <v>21656</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1008834847965432</v>
+        <v>0.1008834847965433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06453983756538578</v>
+        <v>0.06642366007023365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1443862421740016</v>
+        <v>0.1542605769520839</v>
       </c>
     </row>
     <row r="27">
@@ -10665,19 +10665,19 @@
         <v>18998</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14065</v>
+        <v>13948</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25078</v>
+        <v>25351</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2402157317734416</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1778506675223659</v>
+        <v>0.1763630509626574</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3170966925795874</v>
+        <v>0.320549460758314</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -10686,19 +10686,19 @@
         <v>8060</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4745</v>
+        <v>4816</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12326</v>
+        <v>12188</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1314941641074207</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07740366218571491</v>
+        <v>0.07856286564285317</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2010777929128292</v>
+        <v>0.1988243383666446</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>51</v>
@@ -10707,19 +10707,19 @@
         <v>27058</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21256</v>
+        <v>20611</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>34859</v>
+        <v>34596</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1927429787578653</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1514152098892576</v>
+        <v>0.1468164245935246</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2483086859578763</v>
+        <v>0.2464415614305684</v>
       </c>
     </row>
     <row r="28">
@@ -10740,19 +10740,19 @@
         <v>3072</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8275</v>
+        <v>8339</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01613012434958693</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004420116827386793</v>
+        <v>0.004443426804496196</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0434545669938337</v>
+        <v>0.04379349077797222</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -10761,19 +10761,19 @@
         <v>38646</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29779</v>
+        <v>30179</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49119</v>
+        <v>49560</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2292307443827779</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.17663706057418</v>
+        <v>0.179007337330806</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2913526979784787</v>
+        <v>0.2939661186142793</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -10782,19 +10782,19 @@
         <v>41718</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31949</v>
+        <v>32336</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53048</v>
+        <v>52181</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.11620008020825</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08899135031421262</v>
+        <v>0.09006915302990422</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1477574760256841</v>
+        <v>0.1453425541572612</v>
       </c>
     </row>
     <row r="29">
@@ -10811,19 +10811,19 @@
         <v>122009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>107832</v>
+        <v>109168</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>134785</v>
+        <v>134733</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6407138982881295</v>
+        <v>0.6407138982881296</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5662665746545585</v>
+        <v>0.5732807414808243</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7078032486314505</v>
+        <v>0.7075324583980727</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>128</v>
@@ -10832,19 +10832,19 @@
         <v>87029</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75770</v>
+        <v>76969</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>97165</v>
+        <v>98760</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5162166802853143</v>
+        <v>0.5162166802853142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4494307412249566</v>
+        <v>0.4565421482665083</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5763340020804409</v>
+        <v>0.5857961471893933</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>261</v>
@@ -10853,19 +10853,19 @@
         <v>209039</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>192490</v>
+        <v>193332</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>224711</v>
+        <v>224177</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5822512288311958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5361573374716513</v>
+        <v>0.5385034014033441</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6259034760399163</v>
+        <v>0.6244170976155219</v>
       </c>
     </row>
     <row r="30">
@@ -10882,19 +10882,19 @@
         <v>42368</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31740</v>
+        <v>32457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54847</v>
+        <v>53597</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.222488378730905</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1666794490660657</v>
+        <v>0.1704454228363851</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2880203082353461</v>
+        <v>0.2814552082886325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -10903,19 +10903,19 @@
         <v>26503</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19443</v>
+        <v>19298</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35027</v>
+        <v>34324</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1572014689972241</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1153280690635078</v>
+        <v>0.1144692880315954</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2077659814839884</v>
+        <v>0.2035951412870267</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -10924,19 +10924,19 @@
         <v>68871</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55709</v>
+        <v>56452</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82147</v>
+        <v>83838</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1918302878526129</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1551700112669962</v>
+        <v>0.1572410106299337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2288112126080684</v>
+        <v>0.2335210500969137</v>
       </c>
     </row>
     <row r="31">
@@ -10953,19 +10953,19 @@
         <v>22978</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15016</v>
+        <v>15052</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32111</v>
+        <v>33271</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1206675986313784</v>
+        <v>0.1206675986313785</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07885181019490493</v>
+        <v>0.07904196907605129</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1686260824618448</v>
+        <v>0.1747162290306999</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -10974,19 +10974,19 @@
         <v>16413</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10905</v>
+        <v>10874</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23591</v>
+        <v>23275</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09735110633468383</v>
+        <v>0.0973511063346838</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06468341389359958</v>
+        <v>0.06449940158139915</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1399284721150604</v>
+        <v>0.1380532853013459</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -10995,19 +10995,19 @@
         <v>39391</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>29539</v>
+        <v>28863</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51493</v>
+        <v>51192</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1097184031079413</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08227739254644167</v>
+        <v>0.08039443894016157</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1434275056695579</v>
+        <v>0.1425879888287218</v>
       </c>
     </row>
     <row r="32">
@@ -11028,19 +11028,19 @@
         <v>5061</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1915</v>
+        <v>1633</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11405</v>
+        <v>11689</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0225816352074824</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008544320566384331</v>
+        <v>0.007284877735912213</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05089111784998004</v>
+        <v>0.05215688608250042</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>133</v>
@@ -11049,19 +11049,19 @@
         <v>85141</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>73355</v>
+        <v>74024</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96087</v>
+        <v>95998</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.425353970199116</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3664727875883051</v>
+        <v>0.369813612364301</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4800376458700822</v>
+        <v>0.4795937691110083</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>138</v>
@@ -11070,19 +11070,19 @@
         <v>90202</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>75805</v>
+        <v>76943</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>104770</v>
+        <v>103594</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.212604690347584</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1786714896748132</v>
+        <v>0.1813549293955031</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2469422882345387</v>
+        <v>0.2441701819496528</v>
       </c>
     </row>
     <row r="33">
@@ -11099,19 +11099,19 @@
         <v>33614</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>24570</v>
+        <v>24668</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>42987</v>
+        <v>43864</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1499944278105162</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1096357781026874</v>
+        <v>0.1100723470329645</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1918177767777539</v>
+        <v>0.1957305236064769</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>43</v>
@@ -11120,19 +11120,19 @@
         <v>28299</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>20808</v>
+        <v>21387</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>37444</v>
+        <v>36604</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1413803707681273</v>
+        <v>0.1413803707681274</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1039566006544765</v>
+        <v>0.1068464385260772</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1870647712152924</v>
+        <v>0.1828691274641221</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>88</v>
@@ -11141,19 +11141,19 @@
         <v>61914</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>50568</v>
+        <v>49504</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>75247</v>
+        <v>75358</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1459304211890588</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1191891482186179</v>
+        <v>0.1166803044624307</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1773575887796758</v>
+        <v>0.1776186720817397</v>
       </c>
     </row>
     <row r="34">
@@ -11170,19 +11170,19 @@
         <v>155998</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>143437</v>
+        <v>142834</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>168192</v>
+        <v>167691</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6960976585070526</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6400482011170839</v>
+        <v>0.6373577120271277</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7505098451774495</v>
+        <v>0.7482737102452308</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>116</v>
@@ -11191,19 +11191,19 @@
         <v>75385</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>64018</v>
+        <v>64850</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>86773</v>
+        <v>85991</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3766135314685123</v>
+        <v>0.3766135314685124</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3198282353801543</v>
+        <v>0.3239814134430402</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4335050817678448</v>
+        <v>0.4295999011017377</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>330</v>
@@ -11212,19 +11212,19 @@
         <v>231383</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>214228</v>
+        <v>213991</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>249294</v>
+        <v>248758</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5453689598989596</v>
+        <v>0.5453689598989597</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.504935347949607</v>
+        <v>0.5043765230694337</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5875858788194744</v>
+        <v>0.5863204868036166</v>
       </c>
     </row>
     <row r="35">
@@ -11241,19 +11241,19 @@
         <v>29431</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21089</v>
+        <v>20257</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40340</v>
+        <v>40274</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1313262784749487</v>
+        <v>0.1313262784749488</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09410583063977403</v>
+        <v>0.09039306585710276</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.180004230126839</v>
+        <v>0.1797095798373273</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -11262,19 +11262,19 @@
         <v>11340</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6462</v>
+        <v>6746</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18046</v>
+        <v>17986</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05665212756424434</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03228462242842563</v>
+        <v>0.03370191570837036</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09015320423158665</v>
+        <v>0.08985425325041875</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>47</v>
@@ -11283,19 +11283,19 @@
         <v>40771</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30176</v>
+        <v>30891</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>53387</v>
+        <v>53752</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0960959285643974</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07112566087292151</v>
+        <v>0.07281051720567809</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1258339266366469</v>
+        <v>0.1266939256135095</v>
       </c>
     </row>
     <row r="36">
@@ -11316,19 +11316,19 @@
         <v>11641</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>575</v>
@@ -11337,19 +11337,19 @@
         <v>311206</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3871456996614392</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>589</v>
@@ -11358,19 +11358,19 @@
         <v>322848</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="37">
@@ -11387,19 +11387,19 @@
         <v>457699</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5234133098570695</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>467</v>
@@ -11408,19 +11408,19 @@
         <v>257619</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3204818153668251</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1079</v>
@@ -11429,19 +11429,19 @@
         <v>715317</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4262159511182221</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="38">
@@ -11458,19 +11458,19 @@
         <v>269735</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3084626566199654</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>270</v>
@@ -11479,19 +11479,19 @@
         <v>168859</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>613</v>
@@ -11500,19 +11500,19 @@
         <v>438594</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.261332765566404</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="39">
@@ -11529,19 +11529,19 @@
         <v>135375</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1548115196137584</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>113</v>
@@ -11550,19 +11550,19 @@
         <v>66164</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08230899629993271</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>279</v>
@@ -11571,19 +11571,19 @@
         <v>201539</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1200852501122822</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="40">
